--- a/project_dataset/Lexique - Data Analyst.xlsx
+++ b/project_dataset/Lexique - Data Analyst.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theo/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rociozahoryvasquezromero/Documents/DSML2025/Labs/Week 2/Lab3.week2 /Project1.week2/project-1-ironhack-payments-2-en/project_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB15CBAF-2576-B54A-B443-C252914C6EF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E38C25-0342-E74B-8CCA-9201DA23E7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="context - fees" sheetId="2" r:id="rId1"/>
     <sheet name="context - cash request" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'context - cash request'!$A$1:$B$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +172,184 @@
     <t>Timestamp of the latest fee's details update</t>
   </si>
   <si>
+    <t>Unique ID of Cash Request</t>
+  </si>
+  <si>
+    <t>Amount of the Cash Request</t>
+  </si>
+  <si>
+    <t>Filled only if the CR was manually reviewed and rejected. That's the rejection's reason displayed in-app.</t>
+  </si>
+  <si>
+    <t>Timestamp of the CR creation</t>
+  </si>
+  <si>
+    <t>Timestamp of the latest CR's details update (= update of at least one column in this table)</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Unique ID of the user who requested the cash advance</t>
+  </si>
+  <si>
+    <t>moderated_at</t>
+  </si>
+  <si>
+    <t>Timestamp of the manual review. Only filled if the CR needed a manual review</t>
+  </si>
+  <si>
+    <t>deleted_account_id</t>
+  </si>
+  <si>
+    <t>If a user delete his account, we are replacing the user_id by this id. It corresponds to a unique ID in the deleted account table with some keys information saved for fraud-fighting purposes (while respecting GDPR regulation)</t>
+  </si>
+  <si>
+    <t>reimbursement_date</t>
+  </si>
+  <si>
+    <t>Planned reimbursement date. The user card will be charged at this date.</t>
+  </si>
+  <si>
+    <t>cash_request_debited_date</t>
+  </si>
+  <si>
+    <t>Filled only if a SEPA direct debit was sent. It's the date were the latest direct debit was seen on the user account.</t>
+  </si>
+  <si>
+    <t>cash_request_received_date</t>
+  </si>
+  <si>
+    <t>Date of the receipt of the CR. Based on user's bank history.</t>
+  </si>
+  <si>
+    <t>money_back_date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date where the CR was considered as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>money back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It's either the paid_by_card date or the date were we considered that's the direc debit have low odds to be rejected (based on business rules) </t>
+    </r>
+  </si>
+  <si>
+    <t>transfer_type</t>
+  </si>
+  <si>
+    <t>Instant = user choose not received the advance instantly . Regular = user choose to not pay and wait for the transfer</t>
+  </si>
+  <si>
+    <t>send_at</t>
+  </si>
+  <si>
+    <t>Timestamp of the funds's transfer</t>
+  </si>
+  <si>
+    <t>recovery_status</t>
+  </si>
+  <si>
+    <t>reco_creation</t>
+  </si>
+  <si>
+    <t>reco_last_update</t>
+  </si>
+  <si>
+    <t>Timestamp of the recovery creation</t>
+  </si>
+  <si>
+    <t>Timestamp of the last recovery case update. Can be used to determine the incident closure date.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Null if the cash request never had a payment incident.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the payment incident was resolved (=the cash request was reimbursed)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the payment incident still open
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pending_direct_debit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the payment incident still open but a SEPA direct debit is launched</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Type of fee
 </t>
@@ -231,12 +414,18 @@
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>- incident :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> fees for failed reimbursement. Created after a failed direct debit</t>
     </r>
     <r>
       <rPr>
@@ -246,7 +435,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> fees for failed reimbursement. Created after a failed direct debit
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -341,35 +530,54 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : fee was created and cancelled for some reasons. It's used to fix issues with fees but it mainly concern postpone fees who failed. We are charging the fees at the moment of the postpone request. If it failed, the postpone is not accepted and the reimbursement date still the same.
-- </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>accepted</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t xml:space="preserve"> : fees were successfully charged</t>
     </r>
   </si>
   <si>
-    <t>Unique ID of Cash Request</t>
+    <t>rate</t>
   </si>
   <si>
-    <t>Amount of the Cash Request</t>
+    <t xml:space="preserve">x/total incidents </t>
+  </si>
+  <si>
+    <t>Frecuency</t>
+  </si>
+  <si>
+    <t>Incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when client recieve the money </t>
+  </si>
+  <si>
+    <t>user Ids</t>
+  </si>
+  <si>
+    <t>in the same moth</t>
   </si>
   <si>
     <r>
@@ -637,18 +845,32 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : We were not able to estimate a date of reimbursement, the user needs to choose one in the app.
-- </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> : Funds were received on the customer account.</t>
     </r>
     <r>
       <rPr>
@@ -658,7 +880,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : Funds were received on the customer account.
+      <t xml:space="preserve">
 - </t>
     </r>
     <r>
@@ -683,184 +905,12 @@
       <t xml:space="preserve"> : The CR was successfully reimbursed.</t>
     </r>
   </si>
-  <si>
-    <t>Filled only if the CR was manually reviewed and rejected. That's the rejection's reason displayed in-app.</t>
-  </si>
-  <si>
-    <t>Timestamp of the CR creation</t>
-  </si>
-  <si>
-    <t>Timestamp of the latest CR's details update (= update of at least one column in this table)</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>Unique ID of the user who requested the cash advance</t>
-  </si>
-  <si>
-    <t>moderated_at</t>
-  </si>
-  <si>
-    <t>Timestamp of the manual review. Only filled if the CR needed a manual review</t>
-  </si>
-  <si>
-    <t>deleted_account_id</t>
-  </si>
-  <si>
-    <t>If a user delete his account, we are replacing the user_id by this id. It corresponds to a unique ID in the deleted account table with some keys information saved for fraud-fighting purposes (while respecting GDPR regulation)</t>
-  </si>
-  <si>
-    <t>reimbursement_date</t>
-  </si>
-  <si>
-    <t>Planned reimbursement date. The user card will be charged at this date.</t>
-  </si>
-  <si>
-    <t>cash_request_debited_date</t>
-  </si>
-  <si>
-    <t>Filled only if a SEPA direct debit was sent. It's the date were the latest direct debit was seen on the user account.</t>
-  </si>
-  <si>
-    <t>cash_request_received_date</t>
-  </si>
-  <si>
-    <t>Date of the receipt of the CR. Based on user's bank history.</t>
-  </si>
-  <si>
-    <t>money_back_date</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Date where the CR was considered as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>money back</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. It's either the paid_by_card date or the date were we considered that's the direc debit have low odds to be rejected (based on business rules) </t>
-    </r>
-  </si>
-  <si>
-    <t>transfer_type</t>
-  </si>
-  <si>
-    <t>Instant = user choose not received the advance instantly . Regular = user choose to not pay and wait for the transfer</t>
-  </si>
-  <si>
-    <t>send_at</t>
-  </si>
-  <si>
-    <t>Timestamp of the funds's transfer</t>
-  </si>
-  <si>
-    <t>recovery_status</t>
-  </si>
-  <si>
-    <t>reco_creation</t>
-  </si>
-  <si>
-    <t>reco_last_update</t>
-  </si>
-  <si>
-    <t>Timestamp of the recovery creation</t>
-  </si>
-  <si>
-    <t>Timestamp of the last recovery case update. Can be used to determine the incident closure date.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Null if the cash request never had a payment incident.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the payment incident was resolved (=the cash request was reimbursed)
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pending</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the payment incident still open
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pending_direct_debit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the payment incident still open but a SEPA direct debit is launched</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,8 +1062,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,6 +1267,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1360,57 +1458,79 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1426,9 +1546,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1466,7 +1586,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1572,7 +1692,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1714,7 +1834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1722,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1B98DC-AA23-8848-AD79-7CDAFD86BA20}">
-  <dimension ref="A1:B16376"/>
+  <dimension ref="A1:C16376"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1854,7 @@
     <col min="2" max="2" width="92.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1750,31 +1870,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" s="11" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1782,15 +1905,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1814,7 +1937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1822,23 +1945,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -81803,10 +81926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6A73B-D1D2-0341-9B4F-0C7C22352858}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81815,7 +81938,7 @@
     <col min="2" max="2" width="189" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -81823,148 +81946,198 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B19" xr:uid="{E5D6A73B-D1D2-0341-9B4F-0C7C22352858}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F163434-9A94-784A-90FC-56E8AC6C982E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB51E860-1315-0C43-881F-9A19C6E91689}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
